--- a/excels/config/game/mission.xlsx
+++ b/excels/config/game/mission.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>编号</t>
   </si>
@@ -62,84 +62,108 @@
     <t>踢足球</t>
   </si>
   <si>
-    <t xml:space="preserve">根据玩家数量，玩家人数≤2时，在原地生成一个足球，玩家需要推动足球到指定的光圈内，即可完成任务。玩家数量＞2时，生成两个足球。所有足球进入指定地点才为任务完成。
+    <t>在原地生成1个足球，踢足球吧！把足球踢到指定的光圈内，即可完成任务。任务限时：60秒</t>
+  </si>
+  <si>
+    <t>原地生成X个足球，根据玩家数量动态修改数字
+玩家人数≤2时，生成1个足球
+玩家数量＞2时，生成2个足球</t>
+  </si>
+  <si>
+    <t>r_2</t>
+  </si>
+  <si>
+    <t>接力赛</t>
+  </si>
+  <si>
+    <t>接力赛！任意玩家跑到指定的光圈内即可看到下一个光圈，一共有5个光圈哦！冲冲冲！任务限时：15秒</t>
+  </si>
+  <si>
+    <t>到达一个区域进入光圈后，出现下一个目标点及光圈
+每到达一个光圈后，重置限时，直到到达最终光圈</t>
+  </si>
+  <si>
+    <t>r_3</t>
+  </si>
+  <si>
+    <t>接球赛</t>
+  </si>
+  <si>
+    <t>接球咯！谁都可以去接球，不能让球落地！一共接5次，快行动起来！任务限时：45秒</t>
+  </si>
+  <si>
+    <t>接球时，站在光圈内球会飞起来，
+并在空中向周围随机方向移动距离最大不超过500码</t>
+  </si>
+  <si>
+    <t>r_4</t>
+  </si>
+  <si>
+    <t>集结</t>
+  </si>
+  <si>
+    <t>集合啦！所有玩家快点跑到集合点去！任务限时：60秒</t>
+  </si>
+  <si>
+    <t>r_5</t>
+  </si>
+  <si>
+    <t>追逐小猪</t>
+  </si>
+  <si>
+    <t>逮住那只猪！任意玩家触碰到小猪即可！任务限时：45秒</t>
+  </si>
+  <si>
+    <t>触碰即可完成</t>
+  </si>
+  <si>
+    <t>r_6</t>
+  </si>
+  <si>
+    <t>破坏箱子</t>
+  </si>
+  <si>
+    <t>5星市民出动！去寻找并破坏箱子！总共需要破坏10个箱子！任务限时：45秒</t>
+  </si>
+  <si>
+    <t>一共生成15个箱子，对箱子造成任意伤害即可破坏</t>
+  </si>
+  <si>
+    <t>r_7</t>
+  </si>
+  <si>
+    <t>求生</t>
+  </si>
+  <si>
+    <t>抱团取暖吧！所有玩家在限定的区域里面坚持到时间结束！任意玩家离开光圈算作失败哟！任务限时：20秒</t>
+  </si>
+  <si>
+    <t>强制将所有玩家牵引到一个半径1000码范围内，光圈为金色</t>
+  </si>
+  <si>
+    <t>r_8</t>
+  </si>
+  <si>
+    <t>逮捕大鱼人</t>
+  </si>
+  <si>
+    <t>这只大鱼不会晕！快逮捕大鱼人，它会一直跑哦！集火消灭它吧！任务限时：60秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>r_2</t>
-  </si>
-  <si>
-    <t>接力赛</t>
-  </si>
-  <si>
-    <t>需要任意一名玩家，接连跑到指定区域。到达一个区域进入光圈后，出现下一个目标点及光圈。一共会有5个光圈。</t>
-  </si>
-  <si>
-    <t>r_3</t>
-  </si>
-  <si>
-    <t>接球赛</t>
-  </si>
-  <si>
-    <t>需要任意一名玩家，去接球。到达球落地的位置，站在光圈内球会飞起来，并在空中向周围随机方向移动距离最大不超过500码，任意玩家均可接球。球一共会落地5次。</t>
-  </si>
-  <si>
-    <t>r_4</t>
-  </si>
-  <si>
-    <t>集结</t>
-  </si>
-  <si>
-    <t>需要所有玩家在限定时间内到达指定目标地点的光圈内。</t>
-  </si>
-  <si>
-    <t>r_5</t>
-  </si>
-  <si>
-    <t>追逐小猪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">需要任意一名玩家追逐小猪，触碰到小猪就算完成任务。
-</t>
-  </si>
-  <si>
-    <t>r_6</t>
-  </si>
-  <si>
-    <t>破坏箱子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">需要任意玩家去地图内寻找并破坏箱子。
-</t>
-  </si>
-  <si>
-    <t>r_7</t>
-  </si>
-  <si>
-    <t>求生</t>
-  </si>
-  <si>
-    <t>强制将所有玩家牵引到一个半径1000码范围内，玩家需要生存相应时间。</t>
-  </si>
-  <si>
-    <t>r_8</t>
-  </si>
-  <si>
-    <t>逮捕大鱼人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出现一只免疫减速的大鱼人，无法攻击且受伤害后会逃跑。
-</t>
-  </si>
-  <si>
     <t>d_1</t>
   </si>
   <si>
     <t>重炮蜘蛛</t>
   </si>
   <si>
-    <t xml:space="preserve">生成一只巨大蜘蛛女王，每过3秒会向周围6个方向发射暗影球造成伤害。
-</t>
+    <t>出现一只巨大蜘蛛女王，每过3秒会向周围6个方向发射暗影球造成伤害，在它击败你之前消灭它！任务限时：90秒</t>
+  </si>
+  <si>
+    <t>暗影球发射距离=5000码</t>
   </si>
   <si>
     <t>d_2</t>
@@ -148,8 +172,11 @@
     <t>怒火野马</t>
   </si>
   <si>
-    <t xml:space="preserve">生成一只巨大的人马，锁定一名玩家英雄进行追击。
-</t>
+    <t>出现一只巨大的人马，锁定一名玩家英雄进行追击。
+在它击败你之前消灭它！任务限时：90秒</t>
+  </si>
+  <si>
+    <t>锁定玩家 需要虚线指示</t>
   </si>
   <si>
     <t>d_3</t>
@@ -158,7 +185,8 @@
     <t>躲避流星</t>
   </si>
   <si>
-    <t>【夜魇的试炼】：短暂延迟5秒之后，开始从天降流星轰击每一名玩家。</t>
+    <t>短暂延迟5秒之后，开始从天降流星轰击每一名玩家。
+躲避流星！坚持30秒！！</t>
   </si>
   <si>
     <t>d_4</t>
@@ -167,7 +195,7 @@
     <t>致命逃亡</t>
   </si>
   <si>
-    <t>从地图四个角落中的随机一个角落开始蔓延剧毒，直到蔓延到整个地图的80%结束。</t>
+    <t>从地图四个角落中的随机一个角落出现逐渐扩大的闪电线圈，赶紧逃离！电圈扩大持续30秒！！</t>
   </si>
   <si>
     <t>d_5</t>
@@ -176,7 +204,7 @@
     <t>你被包围了</t>
   </si>
   <si>
-    <t>在接取任务的地点（此时判定圈内玩家），生成一个巨大的光圈（暗红色），会不停的刷新特定怪物进攻玩家。怪物和普通小怪一样的掉落和击杀计数。</t>
+    <t>在接取任务的地点生成一个巨大的光圈，会不停的刷新怪物进攻玩家，在圈内存活30秒，所有玩家离开光圈算作失败！</t>
   </si>
   <si>
     <t>d_6</t>
@@ -185,7 +213,7 @@
     <t>黑暗降临</t>
   </si>
   <si>
-    <t>全体玩家视野变为极小。</t>
+    <t>全体玩家视野变为极小，持续30秒</t>
   </si>
   <si>
     <t>d_7</t>
@@ -194,7 +222,7 @@
     <t>慌慌张张</t>
   </si>
   <si>
-    <t>全体玩家移动方向强制相反。</t>
+    <t>全体玩家移动方向强制相反，持续30秒</t>
   </si>
   <si>
     <t>d_8</t>
@@ -203,7 +231,7 @@
     <t>匆匆忙忙</t>
   </si>
   <si>
-    <t>限制时间内，所有敌军移动速度翻倍。</t>
+    <t>所有敌军移动速度翻倍，持续20秒</t>
   </si>
 </sst>
 </file>
@@ -236,7 +264,6 @@
       <sz val="12"/>
       <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -249,7 +276,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1018,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,19 +1072,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,7 +1418,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BF99671C-621B-4045-8CE8-084F896E7D2C}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{EE368589-7769-4E47-9EB1-79B876D95BD1}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
@@ -1657,19 +1689,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="19.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="18.3416666666667" customWidth="1"/>
     <col min="4" max="4" width="30.675" customWidth="1"/>
     <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:5">
@@ -1704,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="80" customHeight="1" spans="1:5">
+    <row r="3" ht="80" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1720,261 +1753,295 @@
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="47" customHeight="1" spans="1:5">
+    <row r="4" ht="47" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="63.5" customHeight="1" spans="1:5">
+    <row r="5" ht="63.5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:5">
+    <row r="6" ht="30.5" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
-    <row r="7" ht="47" customHeight="1" spans="1:5">
+    <row r="7" ht="47" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" ht="47" customHeight="1" spans="1:5">
+    <row r="8" ht="47" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" ht="47" customHeight="1" spans="1:5">
+    <row r="9" ht="47" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" ht="47" customHeight="1" spans="1:5">
+    <row r="10" ht="47" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10">
+        <v>36</v>
+      </c>
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" ht="63.5" customHeight="1" spans="1:5">
+    <row r="11" ht="63.5" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" ht="47" customHeight="1" spans="1:5">
+    <row r="12" ht="47" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="10">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="13" ht="47" customHeight="1" spans="1:5">
+    <row r="13" ht="47" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="10">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
-    <row r="14" ht="47" customHeight="1" spans="1:5">
+    <row r="14" ht="47" customHeight="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10">
+        <v>51</v>
+      </c>
+      <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
-    <row r="15" ht="63.5" customHeight="1" spans="1:5">
+    <row r="15" ht="63.5" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="10">
+        <v>54</v>
+      </c>
+      <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:5">
+    <row r="16" ht="30.5" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="10">
+        <v>57</v>
+      </c>
+      <c r="B16" s="11">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:5">
+    <row r="17" ht="30.5" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10">
+        <v>60</v>
+      </c>
+      <c r="B17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F17" s="12"/>
     </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:5">
+    <row r="18" ht="30.5" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="11">
+        <v>63</v>
+      </c>
+      <c r="B18" s="13">
         <v>8</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="D18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
